--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3536.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3536.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.185260521025294</v>
+        <v>1.097257733345032</v>
       </c>
       <c r="B1">
-        <v>2.468782270927872</v>
+        <v>1.103580117225647</v>
       </c>
       <c r="C1">
-        <v>2.526285763405959</v>
+        <v>1.066441655158997</v>
       </c>
       <c r="D1">
-        <v>3.260380557086735</v>
+        <v>1.28650951385498</v>
       </c>
       <c r="E1">
-        <v>1.216590583884274</v>
+        <v>1.212653756141663</v>
       </c>
     </row>
   </sheetData>
